--- a/OBIE Products.xlsx
+++ b/OBIE Products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -201,12 +201,6 @@
   </si>
   <si>
     <t>OBPCAData1</t>
-  </si>
-  <si>
-    <t>CustomerReference:
-              $ref: '#/components/schemas/Involvedparty'
-PartyIdentification
-IdentifierValue</t>
   </si>
   <si>
     <t>ProductAgreementReference:
@@ -269,6 +263,16 @@
   </si>
   <si>
     <t>CustomerProductandServiceDirectory</t>
+  </si>
+  <si>
+    <t>OB to populate</t>
+  </si>
+  <si>
+    <t>Ref:
+CustomerReference:
+              $ref: '#/components/schemas/Involvedparty'
+PartyIdentification
+IdentifierValue</t>
   </si>
 </sst>
 </file>
@@ -646,7 +650,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -686,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -769,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.5" x14ac:dyDescent="0.55000000000000004">
@@ -794,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="73.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -816,10 +820,10 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.5" x14ac:dyDescent="0.55000000000000004">
@@ -844,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
@@ -871,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="73.5" x14ac:dyDescent="0.55000000000000004">
@@ -896,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="112.2" x14ac:dyDescent="0.55000000000000004">
@@ -943,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -968,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.55000000000000004">
@@ -991,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.4">
@@ -1014,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
